--- a/biology/Neurosciences/Joël_Bockaert/Joël_Bockaert.xlsx
+++ b/biology/Neurosciences/Joël_Bockaert/Joël_Bockaert.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Jo%C3%ABl_Bockaert</t>
+          <t>Joël_Bockaert</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Joël Bockaert est né le 3 octobre 1945 à Roubaix est un biologiste français.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Jo%C3%ABl_Bockaert</t>
+          <t>Joël_Bockaert</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,11 +523,13 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il a été élève de l’École normale d’instituteur à Mérignac (Gironde) de 1961 à 1964 et de l’École normale supérieure-Rue d’Ulm-Paris de 1964 à 1968.
 Agrégé de Sciences Naturelles (1968), il effectue ses travaux de thèse au Collège de France et son stage post-doctoral à la Northwestern University de Chicago. Il fut successivement enseignant à l’Université de Paris VI (1968-1973), sous-directeur de la Chaire de Physiologie cellulaire au Collège de France (1973-1982) avant d’être, à Montpellier, Directeur de recherche au CNRS (1982-2001) puis Professeur à l’Université de Montpellier (2001-2014).
-A Montpellier, il fonde l’Institut CNRS-INSERM de Pharmacologie-Endocrinologie (1982) dont il fut le Directeur de 1990 à 2005 puis l’Institut de Génomique fonctionnelle[1]. En 2013, il devient Directeur du Pôle Biologie-santé de Montpellier[2].
+A Montpellier, il fonde l’Institut CNRS-INSERM de Pharmacologie-Endocrinologie (1982) dont il fut le Directeur de 1990 à 2005 puis l’Institut de Génomique fonctionnelle. En 2013, il devient Directeur du Pôle Biologie-santé de Montpellier.
 </t>
         </is>
       </c>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Jo%C3%ABl_Bockaert</t>
+          <t>Joël_Bockaert</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,11 +558,13 @@
           <t>Travaux scientifiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les travaux de Joël Bockaert ont été consacrés à l'étude des communications intercellulaires et en particulier celles mises en jeu dans le cerveau[3],[4],[5],[6].
-Joël Bockaert a été un des précurseurs de l'étude des molécules chargées de reconnaître et d'interpréter les messages de la communication intercellulaire que l’on appelle « récepteurs ». Il s'est spécialisé dans l'étude d'une famille de récepteurs que l'on a nommé « Récepteurs couplés aux protéines G ou RCPG ». Il en découvrira certains dont les récepteurs de l’ocytocine, de la vasopressine[7], les récepteurs métabotropiques du glutamate du cerveau[8],[9],[10],[11],[12],[13] ou encore des récepteurs de la sérotonine[14]. Ces derniers modulent les fonctions cognitives et émotionnelles. La famille des RCPG a une importance physiologique considérable. Ce sont ces récepteurs qui captent la lumière (assurant la vision), qui reconnaissent les goûts amers, sucrés ou umami, les odeurs mais aussi la majorité des hormones et des neurotransmetteurs[1],[2].
-Vu leurs rôles, ces récepteurs sont la cible directe ou indirecte de plus de 40 % des médicaments vendus en pharmacie pour traiter l’hypertension, les allergies, la migraine, la dépression, le parkinson ou la douleur[1],[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les travaux de Joël Bockaert ont été consacrés à l'étude des communications intercellulaires et en particulier celles mises en jeu dans le cerveau.
+Joël Bockaert a été un des précurseurs de l'étude des molécules chargées de reconnaître et d'interpréter les messages de la communication intercellulaire que l’on appelle « récepteurs ». Il s'est spécialisé dans l'étude d'une famille de récepteurs que l'on a nommé « Récepteurs couplés aux protéines G ou RCPG ». Il en découvrira certains dont les récepteurs de l’ocytocine, de la vasopressine, les récepteurs métabotropiques du glutamate du cerveau ou encore des récepteurs de la sérotonine. Ces derniers modulent les fonctions cognitives et émotionnelles. La famille des RCPG a une importance physiologique considérable. Ce sont ces récepteurs qui captent la lumière (assurant la vision), qui reconnaissent les goûts amers, sucrés ou umami, les odeurs mais aussi la majorité des hormones et des neurotransmetteurs,.
+Vu leurs rôles, ces récepteurs sont la cible directe ou indirecte de plus de 40 % des médicaments vendus en pharmacie pour traiter l’hypertension, les allergies, la migraine, la dépression, le parkinson ou la douleur,.
 </t>
         </is>
       </c>
@@ -559,7 +575,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Jo%C3%ABl_Bockaert</t>
+          <t>Joël_Bockaert</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -577,11 +593,13 @@
           <t>Sociétés savantes et académies</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">1992-1995  Président de la Société des Neurosciences
 1996 : Membre de l’EMBO
-Il est élu membre correspondant de l’Académie des Sciences en 1996 puis, membre, en 2003[15].
+Il est élu membre correspondant de l’Académie des Sciences en 1996 puis, membre, en 2003.
 En 2017, il devient membre de l’Académie des Sciences et des Lettres de Montpellier.
 </t>
         </is>
@@ -593,7 +611,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Jo%C3%ABl_Bockaert</t>
+          <t>Joël_Bockaert</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -611,7 +629,9 @@
           <t>Prix et distinctions</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Prix Rochat-Julliard de l’Académie des Sciences
 Grand Prix Charles-Léopold Mayer de l'Académie des Sciences  
@@ -627,7 +647,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Jo%C3%ABl_Bockaert</t>
+          <t>Joël_Bockaert</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -645,7 +665,9 @@
           <t>Livres de Joël Bockaert</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Bockaert Joël. La communication du vivant. Odile Jacob (2017)
 Bockaert Joël. Le Cannabis, Quelle Histoire. UGA Éditions, Grenoble (2021)
